--- a/docs/excel/TCitys.xlsx
+++ b/docs/excel/TCitys.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="TBuildings" sheetId="1" r:id="rId1"/>
+    <sheet name="TCitys" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -71,10 +71,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>TableName: "TBuildings" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,31 +103,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄埔区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TCitys" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Superior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄埔区</t>
+    <t>上级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +557,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,27 +571,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,14 +601,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,7 +694,7 @@
         <v>10002</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -732,7 +738,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,7 +750,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TCitys.xlsx
+++ b/docs/excel/TCitys.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -95,22 +95,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TCitys" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天津</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,15 +139,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "TCitys" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级</t>
+    <t>徐汇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青浦区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静安区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松江区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉贤区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇明区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹口区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普陀区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝山区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,10 +603,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -582,13 +631,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>20</v>
@@ -607,7 +656,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
@@ -624,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -638,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -680,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,32 +743,176 @@
         <v>10002</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11">
+        <v>20002</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10002</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12">
+        <v>20003</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10002</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13">
+        <v>20004</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10002</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14">
+        <v>20005</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>10002</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20006</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>10002</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>20007</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>10002</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>20008</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>10002</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>20009</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>10002</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>20010</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10002</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20011</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10002</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20012</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10002</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20013</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>10002</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -750,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TCitys.xlsx
+++ b/docs/excel/TCitys.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
@@ -190,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -606,7 +611,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,7 +669,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -678,7 +683,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -692,7 +697,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10003</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -706,7 +711,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10004</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -720,7 +725,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10005</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -734,13 +739,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20001</v>
+        <v>2001</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>34</v>
@@ -748,13 +753,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20002</v>
+        <v>2002</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>35</v>
@@ -762,13 +767,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20003</v>
+        <v>2003</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>36</v>
@@ -776,13 +781,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20004</v>
+        <v>2004</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -790,13 +795,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20005</v>
+        <v>2005</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>38</v>
@@ -804,13 +809,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>20006</v>
+        <v>2006</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>39</v>
@@ -818,13 +823,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>20007</v>
+        <v>2007</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>40</v>
@@ -832,13 +837,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>20008</v>
+        <v>2008</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>41</v>
@@ -846,13 +851,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>20009</v>
+        <v>2009</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
@@ -860,13 +865,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>20010</v>
+        <v>2010</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>43</v>
@@ -874,13 +879,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>20011</v>
+        <v>2011</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>44</v>
@@ -888,13 +893,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20012</v>
+        <v>2012</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>45</v>
@@ -902,13 +907,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20013</v>
+        <v>2013</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>46</v>

--- a/docs/excel/TCitys.xlsx
+++ b/docs/excel/TCitys.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="24720" yWindow="270" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCitys" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -164,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浦东区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>松江区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,13 +181,51 @@
   <si>
     <t>宝山区</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>长宁区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浦区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东新区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉定区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -217,6 +246,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +303,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,66 +668,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>101</v>
       </c>
@@ -681,7 +761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102</v>
       </c>
@@ -694,8 +774,14 @@
       <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="12">
+        <v>31.231705999999999</v>
+      </c>
+      <c r="F6" s="12">
+        <v>121.472644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>103</v>
       </c>
@@ -708,8 +794,9 @@
       <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>104</v>
       </c>
@@ -722,8 +809,9 @@
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>105</v>
       </c>
@@ -736,8 +824,9 @@
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -750,8 +839,14 @@
       <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="12">
+        <v>31.223369999999999</v>
+      </c>
+      <c r="F10" s="12">
+        <v>121.49294999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -764,8 +859,14 @@
       <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="12">
+        <v>31.188310000000001</v>
+      </c>
+      <c r="F11" s="12">
+        <v>121.43676000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -778,8 +879,14 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="12">
+        <v>31.112459999999999</v>
+      </c>
+      <c r="F12" s="12">
+        <v>121.38162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -792,8 +899,14 @@
       <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="12">
+        <v>31.149740000000001</v>
+      </c>
+      <c r="F13" s="12">
+        <v>121.12417000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -806,8 +919,14 @@
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="12">
+        <v>30.741630000000001</v>
+      </c>
+      <c r="F14" s="12">
+        <v>121.34164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -820,8 +939,14 @@
       <c r="D15" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="12">
+        <v>31.228840000000002</v>
+      </c>
+      <c r="F15" s="12">
+        <v>121.4444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -832,10 +957,16 @@
         <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12">
+        <v>31.222490000000001</v>
+      </c>
+      <c r="F16" s="12">
+        <v>121.54470000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -846,10 +977,16 @@
         <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12">
+        <v>31.032219999999999</v>
+      </c>
+      <c r="F17" s="12">
+        <v>121.22879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -860,10 +997,16 @@
         <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="E18" s="12">
+        <v>30.917899999999999</v>
+      </c>
+      <c r="F18" s="12">
+        <v>121.47412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -874,10 +1017,16 @@
         <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="E19" s="12">
+        <v>31.622779999999999</v>
+      </c>
+      <c r="F19" s="12">
+        <v>121.39758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -888,10 +1037,16 @@
         <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="E20" s="12">
+        <v>31.27788</v>
+      </c>
+      <c r="F20" s="12">
+        <v>121.48162000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -902,10 +1057,16 @@
         <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="E21" s="12">
+        <v>31.249510000000001</v>
+      </c>
+      <c r="F21" s="12">
+        <v>121.39703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -916,7 +1077,73 @@
         <v>102</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E22" s="12">
+        <v>31.404499999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <v>121.48909999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12">
+        <v>31.220359999999999</v>
+      </c>
+      <c r="F23" s="12">
+        <v>121.42462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>102</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="12">
+        <v>31.259499999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>121.526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>102</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="12">
+        <v>31.37473</v>
+      </c>
+      <c r="F25" s="12">
+        <v>121.2655</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCitys.xlsx
+++ b/docs/excel/TCitys.xlsx
@@ -115,26 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄埔区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +196,26 @@
   <si>
     <t>嘉定区</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -696,10 +696,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -716,10 +716,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12">
         <v>31.231705999999999</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -837,7 +837,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12">
         <v>31.223369999999999</v>
@@ -857,7 +857,7 @@
         <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12">
         <v>31.188310000000001</v>
@@ -877,7 +877,7 @@
         <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="12">
         <v>31.112459999999999</v>
@@ -897,7 +897,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12">
         <v>31.149740000000001</v>
@@ -917,7 +917,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" s="12">
         <v>30.741630000000001</v>
@@ -937,7 +937,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12">
         <v>31.228840000000002</v>
@@ -957,7 +957,7 @@
         <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="12">
         <v>31.222490000000001</v>
@@ -977,7 +977,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="12">
         <v>31.032219999999999</v>
@@ -997,7 +997,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="12">
         <v>30.917899999999999</v>
@@ -1017,7 +1017,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" s="12">
         <v>31.622779999999999</v>
@@ -1037,7 +1037,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" s="12">
         <v>31.27788</v>
@@ -1057,7 +1057,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" s="12">
         <v>31.249510000000001</v>
@@ -1077,7 +1077,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12">
         <v>31.404499999999999</v>
@@ -1097,7 +1097,7 @@
         <v>102</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E23" s="12">
         <v>31.220359999999999</v>
@@ -1117,7 +1117,7 @@
         <v>102</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="12">
         <v>31.259499999999999</v>
@@ -1137,7 +1137,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E25" s="12">
         <v>31.37473</v>
